--- a/avg_return.xlsx
+++ b/avg_return.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="500" windowWidth="38400" windowHeight="12280" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -150,7 +150,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1735,11 +1734,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1730438192"/>
-        <c:axId val="1730580160"/>
+        <c:axId val="1698773536"/>
+        <c:axId val="1699498912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1730438192"/>
+        <c:axId val="1698773536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1796,12 +1795,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1730580160"/>
+        <c:crossAx val="1699498912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1730580160"/>
+        <c:axId val="1699498912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1858,7 +1857,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1730438192"/>
+        <c:crossAx val="1698773536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1872,7 +1871,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3346,11 +3344,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1756588336"/>
-        <c:axId val="1731899696"/>
+        <c:axId val="1679697680"/>
+        <c:axId val="1772073904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1756588336"/>
+        <c:axId val="1679697680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3407,12 +3405,12 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1731899696"/>
+        <c:crossAx val="1772073904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1731899696"/>
+        <c:axId val="1772073904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3469,7 +3467,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1756588336"/>
+        <c:crossAx val="1679697680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10482,8 +10480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" zoomScale="118" workbookViewId="0">
-      <selection activeCell="I6" sqref="I5:I6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -12270,7 +12268,7 @@
         <v>65.17</v>
       </c>
       <c r="G66">
-        <f t="shared" ref="G66:G118" si="1">MEDIAN(B66:F66)</f>
+        <f t="shared" ref="G66:G87" si="1">MEDIAN(B66:F66)</f>
         <v>91.13</v>
       </c>
       <c r="H66">
